--- a/medicine/Pharmacie/Marcel_Delépine/Marcel_Delépine.xlsx
+++ b/medicine/Pharmacie/Marcel_Delépine/Marcel_Delépine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcel_Del%C3%A9pine</t>
+          <t>Marcel_Delépine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stéphane Marcel Delépine est un chimiste et pharmacologue français, né le 19 septembre 1871 à Saint-Martin-le-Gaillard, et mort le 21 octobre 1965. Il s'est consacré à la catalyse hétérogène par complexes de métaux lourds (platine, iridium, rhodium), aux liaisons soufre et aux terpènes. La « réaction de Delépine » est un mécanisme de synthèse d'amines primaires par hydrolyse de sels de méthénamine. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcel_Del%C3%A9pine</t>
+          <t>Marcel_Delépine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Delépine est le fils d'un agriculteur du Pays de Caux. Bachelier en 1887, il est apprenti pendant trois années, entre autres dans la pharmacie de son frère aîné Léopold à Gournay-en-Bray. Il étudie la pharmacologie à l'École supérieure de pharmacie de Paris (licencié en 1891). Il exerce ensuite comme préparateur dans plusieurs hôpitaux de Paris, au Collège de France ainsi que dans le laboratoire de Marcellin Berthelot, où il travaille jusqu'en 1902 pour préparer sa thèse de pharmacologie (« Amines et amides dérivés des aldéhydes », publ. aux éd. Gauthier-Villars en 1898). Devenu pharmacien titulaire des Hôpitaux de Paris (1902), il travaille successivement à la clinique Bretonneau, à l'hôpital Broca puis à l'Hôpital de la Pitié, jusqu'en 1927. Simultanément, il enseigne depuis 1904 à l'École supérieure de pharmacie de Paris, dont il obtient en 1913 la chaire de Minéralogie et d'Hydrologie.
 Marcel Delépine est élu membre de l’Académie des sciences dans la section de chimie en 1930 et il est professeur au Collège de France où il occupe la chaire de chimie organique de 1930 à 1941.
-En 1962, il reçoit la médaille d'or du CNRS[1].
+En 1962, il reçoit la médaille d'or du CNRS.
 </t>
         </is>
       </c>
